--- a/SQL/Database Model.xlsx
+++ b/SQL/Database Model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,125 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>adventure_id</t>
+  </si>
+  <si>
+    <t>what adventure we chose</t>
+  </si>
+  <si>
+    <t>name of user</t>
+  </si>
+  <si>
+    <t>current_story_id</t>
+  </si>
+  <si>
+    <t>id for current game (matching with username and adventure id)</t>
+  </si>
+  <si>
+    <t>position within the game</t>
+  </si>
+  <si>
+    <t>current_game</t>
+  </si>
+  <si>
+    <t>story_question</t>
+  </si>
+  <si>
+    <t>story_option</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>USERS</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>GAMES</t>
+  </si>
+  <si>
+    <t>game_id</t>
+  </si>
+  <si>
+    <t>user_money</t>
+  </si>
+  <si>
+    <t>story_id</t>
+  </si>
+  <si>
+    <t>STORY</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Tomer</t>
+  </si>
+  <si>
+    <t>Adventures</t>
+  </si>
+  <si>
+    <t>adventure_name</t>
+  </si>
+  <si>
+    <t>surviving ITC</t>
+  </si>
+  <si>
+    <t>amount_stories</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>inverter</t>
+  </si>
+  <si>
+    <t>user_life</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">question </t>
+  </si>
+  <si>
+    <t>game_completed</t>
+  </si>
+  <si>
+    <t>life_unit</t>
+  </si>
+  <si>
+    <t>wealth_unit</t>
+  </si>
+  <si>
+    <t>question_type</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -28,13 +144,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,13 +184,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -382,13 +545,688 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:AF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="16" max="16" width="26.83203125" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" customWidth="1"/>
+    <col min="20" max="20" width="22.83203125" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" customWidth="1"/>
+    <col min="26" max="26" width="19.33203125" customWidth="1"/>
+    <col min="27" max="27" width="12.83203125" customWidth="1"/>
+    <col min="28" max="28" width="17.6640625" customWidth="1"/>
+    <col min="29" max="29" width="22.6640625" customWidth="1"/>
+    <col min="31" max="31" width="17.33203125" customWidth="1"/>
+    <col min="32" max="32" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:32">
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32">
+      <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>100</v>
+      </c>
+      <c r="R6">
+        <v>10</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>55</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:32">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>33</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>2</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32">
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>48</v>
+      </c>
+      <c r="R9">
+        <v>9</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>3</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10">
+        <v>5</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>4</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V11">
+        <v>6</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32">
+      <c r="V12">
+        <v>7</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32">
+      <c r="V13">
+        <v>8</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>2</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14">
+        <v>9</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>3</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32">
+      <c r="V15">
+        <v>10</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>4</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="V16">
+        <v>11</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="V17">
+        <v>12</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27">
+      <c r="V18">
+        <v>13</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>2</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27">
+      <c r="V19">
+        <v>14</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>3</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27">
+      <c r="N20" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20">
+        <v>40</v>
+      </c>
+      <c r="P20" t="s">
+        <v>29</v>
+      </c>
+      <c r="V20">
+        <v>15</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>4</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27">
+      <c r="V21">
+        <v>16</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27">
+      <c r="V22">
+        <v>17</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27">
+      <c r="V23">
+        <v>18</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>2</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27">
+      <c r="V24">
+        <v>19</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>3</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27">
+      <c r="V25">
+        <v>20</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>4</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27">
+      <c r="V26">
+        <v>21</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27">
+      <c r="V27">
+        <v>22</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27">
+      <c r="V28">
+        <v>23</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>2</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27">
+      <c r="V29">
+        <v>24</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>3</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27">
+      <c r="V30">
+        <v>25</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>4</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
